--- a/data/result/result_all.xlsx
+++ b/data/result/result_all.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27224"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Desktop/映画評価データ/MovieRecommend/data/result/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="60" yWindow="1420" windowWidth="25600" windowHeight="13980" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="1420" windowWidth="25520" windowHeight="13980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -137,6 +145,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -465,12 +478,12 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,10 +495,10 @@
       </c>
       <c r="E1" s="1">
         <f>ABS(C1-$C$7)</f>
-        <v>2.8900000000000006</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>4.9400000000000013</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -497,10 +510,10 @@
       </c>
       <c r="E2" s="1">
         <f>ABS(C2-$C$8)</f>
-        <v>3.5300000000000011</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>5.730000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -512,10 +525,10 @@
       </c>
       <c r="E3" s="1">
         <f>ABS(C3-$C$7)</f>
-        <v>5.4500000000000028</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>7.5000000000000036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -527,10 +540,10 @@
       </c>
       <c r="E4" s="1">
         <f>ABS(C4-$C$8)</f>
-        <v>6.6700000000000017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>8.8700000000000045</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -542,10 +555,10 @@
       </c>
       <c r="E5" s="1">
         <f>ABS(C5-$C$7)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>7.0500000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -557,10 +570,10 @@
       </c>
       <c r="E6" s="1">
         <f>ABS(C6-$C$8)</f>
-        <v>4.8799999999999955</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>7.0799999999999983</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -568,10 +581,10 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>29.57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>27.52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -579,17 +592,12 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>59.14</v>
+        <v>56.94</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/data/result/result_all.xlsx
+++ b/data/result/result_all.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27224"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Desktop/映画評価データ/MovieRecommend/data/result/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="1420" windowWidth="25520" windowHeight="13980" tabRatio="500"/>
+    <workbookView xWindow="4040" yWindow="1740" windowWidth="25520" windowHeight="13980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
   <si>
     <t>Itembase</t>
     <phoneticPr fontId="1"/>
@@ -109,8 +104,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -128,13 +127,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="17">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -142,6 +143,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -475,15 +478,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,11 +497,11 @@
         <v>32.46</v>
       </c>
       <c r="E1" s="1">
-        <f>ABS(C1-$C$7)</f>
+        <f>ABS(C1-$C$9)</f>
         <v>4.9400000000000013</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -509,11 +512,11 @@
         <v>62.67</v>
       </c>
       <c r="E2" s="1">
-        <f>ABS(C2-$C$8)</f>
+        <f>ABS(C2-$C$10)</f>
         <v>5.730000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -524,11 +527,11 @@
         <v>35.020000000000003</v>
       </c>
       <c r="E3" s="1">
-        <f>ABS(C3-$C$7)</f>
+        <f t="shared" ref="E3:E6" si="0">ABS(C3-$C$9)</f>
         <v>7.5000000000000036</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -539,11 +542,11 @@
         <v>65.81</v>
       </c>
       <c r="E4" s="1">
-        <f>ABS(C4-$C$8)</f>
+        <f t="shared" ref="E4:E6" si="1">ABS(C4-$C$10)</f>
         <v>8.8700000000000045</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -554,11 +557,11 @@
         <v>34.57</v>
       </c>
       <c r="E5" s="1">
-        <f>ABS(C5-$C$7)</f>
+        <f t="shared" ref="E5:E7" si="2">ABS(C5-$C$9)</f>
         <v>7.0500000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -569,29 +572,59 @@
         <v>64.02</v>
       </c>
       <c r="E6" s="1">
-        <f>ABS(C6-$C$8)</f>
+        <f t="shared" ref="E6:E8" si="3">ABS(C6-$C$10)</f>
         <v>7.0799999999999983</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7">
-        <v>27.52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C7" s="1">
+        <v>33.66136765076962</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="2"/>
+        <v>6.1413676507696202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
+        <v>63.512490537471614</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="3"/>
+        <v>6.5724905374716158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>27.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
         <v>56.94</v>
       </c>
     </row>
@@ -599,5 +632,10 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/result/result_all.xlsx
+++ b/data/result/result_all.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="1740" windowWidth="25520" windowHeight="13980" tabRatio="500"/>
+    <workbookView xWindow="2660" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>Itembase</t>
     <phoneticPr fontId="1"/>
@@ -44,7 +44,51 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>論文</t>
+    <rPh sb="0" eb="2">
+      <t>ロンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>印象あり</t>
+    <rPh sb="0" eb="2">
+      <t>インショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Contentbase</t>
+  </si>
+  <si>
+    <t>Contentbase+Image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Contentbase+Image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Contentbase</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>印象なし</t>
+    <rPh sb="0" eb="2">
+      <t>インショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FITプログラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダム</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -104,7 +148,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -122,12 +166,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="47">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -136,6 +211,21 @@
     <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -145,6 +235,21 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -478,15 +583,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,11 +605,18 @@
         <v>32.46</v>
       </c>
       <c r="E1" s="1">
-        <f>ABS(C1-$C$9)</f>
-        <v>4.9400000000000013</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <f>ABS($C1-$C$9)</f>
+        <v>3.2800000000000011</v>
+      </c>
+      <c r="F1" s="1">
+        <f>ABS($C1-$C$11)</f>
+        <v>3.5700000000000003</v>
+      </c>
+      <c r="I1">
+        <v>27.52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -513,10 +628,17 @@
       </c>
       <c r="E2" s="1">
         <f>ABS(C2-$C$10)</f>
-        <v>5.730000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>3.3599999999999994</v>
+      </c>
+      <c r="F2" s="1">
+        <f>ABS($C2-$C$12)</f>
+        <v>3.480000000000004</v>
+      </c>
+      <c r="I2">
+        <v>56.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -527,11 +649,15 @@
         <v>35.020000000000003</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E6" si="0">ABS(C3-$C$9)</f>
-        <v>7.5000000000000036</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <f t="shared" ref="E3" si="0">ABS(C3-$C$9)</f>
+        <v>5.8400000000000034</v>
+      </c>
+      <c r="F3" s="1">
+        <f>ABS($C3-$C$11)</f>
+        <v>6.1300000000000026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -542,11 +668,15 @@
         <v>65.81</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E6" si="1">ABS(C4-$C$10)</f>
-        <v>8.8700000000000045</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <f t="shared" ref="E4" si="1">ABS(C4-$C$10)</f>
+        <v>6.5</v>
+      </c>
+      <c r="F4" s="1">
+        <f>ABS($C4-$C$12)</f>
+        <v>6.6200000000000045</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -558,10 +688,14 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E7" si="2">ABS(C5-$C$9)</f>
-        <v>7.0500000000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>5.3900000000000006</v>
+      </c>
+      <c r="F5" s="1">
+        <f>ABS($C5-$C$11)</f>
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -573,10 +707,14 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" ref="E6:E8" si="3">ABS(C6-$C$10)</f>
-        <v>7.0799999999999983</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>4.7099999999999937</v>
+      </c>
+      <c r="F6" s="1">
+        <f>ABS($C6-$C$12)</f>
+        <v>4.8299999999999983</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -588,10 +726,14 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>6.1413676507696202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>4.4813676507696201</v>
+      </c>
+      <c r="F7" s="1">
+        <f>ABS($C7-$C$11)</f>
+        <v>4.7713676507696192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -603,29 +745,153 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" si="3"/>
-        <v>6.5724905374716158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>4.2024905374716113</v>
+      </c>
+      <c r="F8" s="1">
+        <f>ABS($C8-$C$12)</f>
+        <v>4.3224905374716158</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>27.52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>29.18</v>
+      </c>
+      <c r="F9" s="1">
+        <f>ABS($C9-$C$11)</f>
+        <v>0.28999999999999915</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>29.57</v>
+      </c>
+      <c r="J9">
+        <f>I9-K9</f>
+        <v>1.2699999999999996</v>
+      </c>
+      <c r="K9">
+        <v>28.3</v>
+      </c>
+      <c r="M9">
+        <v>27.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>56.94</v>
+        <v>59.31</v>
+      </c>
+      <c r="F10" s="1">
+        <f>ABS($C10-$C$12)</f>
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="I10">
+        <v>59.14</v>
+      </c>
+      <c r="J10">
+        <f>I10-K10</f>
+        <v>0.5</v>
+      </c>
+      <c r="K10">
+        <v>58.64</v>
+      </c>
+      <c r="M10">
+        <v>54.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>28.89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>59.19</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <v>29.62</v>
+      </c>
+      <c r="J12">
+        <f>I12-K12</f>
+        <v>0.94999999999999929</v>
+      </c>
+      <c r="K12">
+        <v>28.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="I13">
+        <v>58.9</v>
+      </c>
+      <c r="J13">
+        <f>I13-K13</f>
+        <v>-0.27000000000000313</v>
+      </c>
+      <c r="K13">
+        <v>59.17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>29.18</v>
+      </c>
+      <c r="J15">
+        <f>I15-K15</f>
+        <v>0.28999999999999915</v>
+      </c>
+      <c r="K15">
+        <v>28.89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="I16">
+        <v>59.31</v>
+      </c>
+      <c r="J16">
+        <f>I16-K16</f>
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="K16">
+        <v>59.19</v>
       </c>
     </row>
   </sheetData>

--- a/data/result/result_all.xlsx
+++ b/data/result/result_all.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Desktop/映画評価データ/MovieRecommend/data/result/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="1740" windowWidth="25520" windowHeight="13980" tabRatio="500"/>
+    <workbookView xWindow="4040" yWindow="1700" windowWidth="25520" windowHeight="13980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -156,6 +161,896 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>推薦すべき映画</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>推薦されても良い映画</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$9:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>27.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>推薦すべき映画</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>推薦されても良い映画</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>34.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1589697392"/>
+        <c:axId val="1589699168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1589697392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1589699168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1589699168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
+                  <a:t>精度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600"/>
+                  <a:t>[%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1589697392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ホワイト">
   <a:themeElements>
@@ -481,12 +1376,12 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C9" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +1396,7 @@
         <v>4.9400000000000013</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -516,7 +1411,7 @@
         <v>5.730000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -527,11 +1422,11 @@
         <v>35.020000000000003</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E6" si="0">ABS(C3-$C$9)</f>
+        <f t="shared" ref="E3" si="0">ABS(C3-$C$9)</f>
         <v>7.5000000000000036</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -542,11 +1437,11 @@
         <v>65.81</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E6" si="1">ABS(C4-$C$10)</f>
+        <f t="shared" ref="E4" si="1">ABS(C4-$C$10)</f>
         <v>8.8700000000000045</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -561,7 +1456,7 @@
         <v>7.0500000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -576,7 +1471,7 @@
         <v>7.0799999999999983</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -591,7 +1486,7 @@
         <v>6.1413676507696202</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -606,7 +1501,7 @@
         <v>6.5724905374716158</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -617,7 +1512,7 @@
         <v>27.52</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -632,10 +1527,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/result/result_all.xlsx
+++ b/data/result/result_all.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="2840" yWindow="600" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,17 +23,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t>Itembase</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Userbase</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>User-&gt;Item</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -89,6 +86,18 @@
   </si>
   <si>
     <t>ランダム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User-&gt;Item(Image)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User-&gt;Item(Title)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User-&gt;Item(Title+Image)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -148,8 +157,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -202,7 +255,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="91">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -226,6 +279,28 @@
     <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -250,6 +325,28 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="90" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -583,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -594,303 +691,448 @@
     <col min="1" max="1" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1">
         <v>32.46</v>
       </c>
       <c r="E1" s="1">
-        <f>ABS($C1-$C$9)</f>
+        <f>ABS($C1-$C$11)</f>
         <v>3.2800000000000011</v>
       </c>
       <c r="F1" s="1">
-        <f>ABS($C1-$C$11)</f>
+        <f>ABS($C1-$C$13)</f>
         <v>3.5700000000000003</v>
       </c>
       <c r="I1">
         <v>27.52</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>62.67</v>
       </c>
       <c r="E2" s="1">
-        <f>ABS(C2-$C$10)</f>
+        <f>ABS(C2-$C$12)</f>
         <v>3.3599999999999994</v>
       </c>
       <c r="F2" s="1">
-        <f>ABS($C2-$C$12)</f>
+        <f>ABS($C2-$C$14)</f>
         <v>3.480000000000004</v>
       </c>
       <c r="I2">
         <v>56.94</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>35.020000000000003</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3" si="0">ABS(C3-$C$9)</f>
+        <f>ABS(C3-$C$11)</f>
         <v>5.8400000000000034</v>
       </c>
       <c r="F3" s="1">
-        <f>ABS($C3-$C$11)</f>
+        <f>ABS($C3-$C$13)</f>
         <v>6.1300000000000026</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>65.81</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4" si="1">ABS(C4-$C$10)</f>
+        <f>ABS(C4-$C$12)</f>
         <v>6.5</v>
       </c>
       <c r="F4" s="1">
-        <f>ABS($C4-$C$12)</f>
+        <f>ABS($C4-$C$14)</f>
         <v>6.6200000000000045</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
       </c>
       <c r="C5">
         <v>34.57</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E7" si="2">ABS(C5-$C$9)</f>
+        <f>ABS(C5-$C$11)</f>
         <v>5.3900000000000006</v>
       </c>
       <c r="F5" s="1">
-        <f>ABS($C5-$C$11)</f>
+        <f>ABS($C5-$C$13)</f>
         <v>5.68</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>64.02</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6:E8" si="3">ABS(C6-$C$10)</f>
+        <f>ABS(C6-$C$12)</f>
         <v>4.7099999999999937</v>
       </c>
       <c r="F6" s="1">
-        <f>ABS($C6-$C$12)</f>
+        <f>ABS($C6-$C$14)</f>
         <v>4.8299999999999983</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
       </c>
       <c r="C7" s="1">
         <v>33.66136765076962</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="2"/>
+        <f>ABS(C7-$C$11)</f>
         <v>4.4813676507696201</v>
       </c>
       <c r="F7" s="1">
-        <f>ABS($C7-$C$11)</f>
+        <f>ABS($C7-$C$13)</f>
         <v>4.7713676507696192</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
         <v>63.512490537471614</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="3"/>
+        <f>ABS(C8-$C$12)</f>
         <v>4.2024905374716113</v>
       </c>
       <c r="F8" s="1">
-        <f>ABS($C8-$C$12)</f>
+        <f>ABS($C8-$C$14)</f>
         <v>4.3224905374716158</v>
       </c>
-      <c r="I8" t="s">
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>33.79</v>
+      </c>
+      <c r="E9" s="1">
+        <f>ABS(C9-$C$11)</f>
+        <v>4.6099999999999994</v>
+      </c>
+      <c r="F9" s="1">
+        <f>ABS($C9-$C$13)</f>
+        <v>4.8999999999999986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>63.79</v>
+      </c>
+      <c r="E10" s="1">
+        <f>ABS(C10-$C$12)</f>
+        <v>4.4799999999999969</v>
+      </c>
+      <c r="F10" s="1">
+        <f>ABS($C10-$C$14)</f>
+        <v>4.6000000000000014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>29.18</v>
+      </c>
+      <c r="F11" s="1">
+        <f>ABS($C11-$C$13)</f>
+        <v>0.28999999999999915</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>59.31</v>
+      </c>
+      <c r="F12" s="1">
+        <f>ABS($C12-$C$14)</f>
+        <v>0.12000000000000455</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>28.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="K8" t="s">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>59.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>32.46</v>
+      </c>
+      <c r="C2">
+        <v>62.67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2">
+        <v>29.57</v>
+      </c>
+      <c r="I2">
+        <f>H2-J2</f>
+        <v>1.2699999999999996</v>
+      </c>
+      <c r="J2">
+        <v>28.3</v>
+      </c>
+      <c r="L2">
+        <v>27.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>35.020000000000003</v>
+      </c>
+      <c r="C3">
+        <v>65.81</v>
+      </c>
+      <c r="H3">
+        <v>59.14</v>
+      </c>
+      <c r="I3">
+        <f>H3-J3</f>
+        <v>0.5</v>
+      </c>
+      <c r="J3">
+        <v>58.64</v>
+      </c>
+      <c r="L3">
+        <v>54.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>34.57</v>
+      </c>
+      <c r="C4">
+        <v>64.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>33.66136765076962</v>
+      </c>
+      <c r="C5" s="1">
+        <v>63.512490537471614</v>
+      </c>
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="M8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9">
+      <c r="H5">
+        <v>29.62</v>
+      </c>
+      <c r="I5">
+        <f>H5-J5</f>
+        <v>0.94999999999999929</v>
+      </c>
+      <c r="J5">
+        <v>28.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>33.79</v>
+      </c>
+      <c r="C6">
+        <v>63.79</v>
+      </c>
+      <c r="H6">
+        <v>58.9</v>
+      </c>
+      <c r="I6">
+        <f>H6-J6</f>
+        <v>-0.27000000000000313</v>
+      </c>
+      <c r="J6">
+        <v>59.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>29.18</v>
       </c>
-      <c r="F9" s="1">
-        <f>ABS($C9-$C$11)</f>
+      <c r="C7">
+        <v>59.31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>28.89</v>
+      </c>
+      <c r="C8">
+        <v>59.19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>29.18</v>
+      </c>
+      <c r="I8">
+        <f>H8-J8</f>
         <v>0.28999999999999915</v>
       </c>
-      <c r="H9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="2">
-        <v>29.57</v>
+      <c r="J8">
+        <v>28.89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="H9">
+        <v>59.31</v>
+      </c>
+      <c r="I9">
+        <f>H9-J9</f>
+        <v>0.12000000000000455</v>
       </c>
       <c r="J9">
-        <f>I9-K9</f>
-        <v>1.2699999999999996</v>
-      </c>
-      <c r="K9">
-        <v>28.3</v>
-      </c>
-      <c r="M9">
-        <v>27.12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>59.31</v>
-      </c>
-      <c r="F10" s="1">
-        <f>ABS($C10-$C$12)</f>
-        <v>0.12000000000000455</v>
-      </c>
-      <c r="I10">
-        <v>59.14</v>
-      </c>
-      <c r="J10">
-        <f>I10-K10</f>
-        <v>0.5</v>
-      </c>
-      <c r="K10">
-        <v>58.64</v>
-      </c>
-      <c r="M10">
-        <v>54.45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>28.89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>59.19</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12">
-        <v>29.62</v>
-      </c>
-      <c r="J12">
-        <f>I12-K12</f>
-        <v>0.94999999999999929</v>
-      </c>
-      <c r="K12">
-        <v>28.67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="I13">
-        <v>58.9</v>
-      </c>
-      <c r="J13">
-        <f>I13-K13</f>
-        <v>-0.27000000000000313</v>
-      </c>
-      <c r="K13">
-        <v>59.17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15">
-        <v>29.18</v>
-      </c>
-      <c r="J15">
-        <f>I15-K15</f>
-        <v>0.28999999999999915</v>
-      </c>
-      <c r="K15">
-        <v>28.89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="I16">
-        <v>59.31</v>
-      </c>
-      <c r="J16">
-        <f>I16-K16</f>
-        <v>0.12000000000000455</v>
-      </c>
-      <c r="K16">
         <v>59.19</v>
       </c>
     </row>

--- a/data/result/result_all.xlsx
+++ b/data/result/result_all.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21600" windowHeight="15460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="24760" windowHeight="15460" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -29,89 +31,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>Itembase</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Userbase</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>◯</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>◯+△</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>論文</t>
     <rPh sb="0" eb="2">
       <t>ロンブン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>印象あり</t>
     <rPh sb="0" eb="2">
       <t>インショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Contentbase</t>
   </si>
   <si>
     <t>Contentbase+Image</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Contentbase+Image</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Contentbase</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>印象なし</t>
     <rPh sb="0" eb="2">
       <t>インショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>FITプログラム</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>fit</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ランダム</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>User-&gt;Item(Image)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>User-&gt;Item(Title)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>User-&gt;Item(Title+Image)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>推薦されるべき映画</t>
     <rPh sb="0" eb="2">
       <t>スイセンサレル</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>推薦されてもよい映画</t>
@@ -121,7 +123,7 @@
     <rPh sb="8" eb="10">
       <t>エイガ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>内容ベース(印象なし)</t>
@@ -131,7 +133,7 @@
     <rPh sb="6" eb="8">
       <t>インショウナシ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>内容ベース(印象あり)</t>
@@ -141,18 +143,18 @@
     <rPh sb="6" eb="8">
       <t>インショウナシ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ユーザベース</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>アイテムベース(映画のタイトル)</t>
     <rPh sb="8" eb="10">
       <t>エイガノ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>提案手法(映画のタイトル)</t>
@@ -165,7 +167,7 @@
     <rPh sb="5" eb="7">
       <t>エイガノ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>提案手法(印象)</t>
@@ -178,7 +180,7 @@
     <rPh sb="5" eb="7">
       <t>インショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>提案手法(映画のタイトル+印象)</t>
@@ -194,14 +196,88 @@
     <rPh sb="13" eb="15">
       <t>インショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>既存システム
+(印象なし)</t>
+    <rPh sb="0" eb="2">
+      <t>キソンシステム</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>インショウナシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>既存システム
+(印象あり)</t>
+    <rPh sb="0" eb="2">
+      <t>キソンシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>インショウナシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>提案システム
+(映画のタイトルのみ)</t>
+    <rPh sb="0" eb="2">
+      <t>テイアンシュホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エイガノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>提案システム
+(印象のみ)</t>
+    <rPh sb="0" eb="2">
+      <t>テイアンシュホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>インショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>提案システム
+(映画のタイトルと印象)</t>
+    <rPh sb="0" eb="2">
+      <t>テイアンシュホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エイガノ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>インショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>③または④</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -235,16 +311,38 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -252,106 +350,141 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="91">
+  <cellStyleXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="91" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="91">
+  <cellStyles count="94">
+    <cellStyle name="パーセント" xfId="91" builtinId="5"/>
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -397,6 +530,7 @@
     <cellStyle name="ハイパーリンク" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="92" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -443,6 +577,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="93" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -494,7 +629,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -595,7 +729,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -702,7 +835,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -809,7 +941,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -916,7 +1047,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1023,7 +1153,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1130,7 +1259,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1239,7 +1367,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1273,10 +1400,10 @@
             <c:numRef>
               <c:f>Sheet3!$B$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>33.79</c:v>
+                  <c:v>36.35250917992656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1293,11 +1420,11 @@
         </c:dLbls>
         <c:gapWidth val="30"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2111965696"/>
-        <c:axId val="2106494928"/>
+        <c:axId val="842624512"/>
+        <c:axId val="835542896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2111965696"/>
+        <c:axId val="842624512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1307,7 +1434,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106494928"/>
+        <c:crossAx val="835542896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1315,7 +1442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2106494928"/>
+        <c:axId val="835542896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1366,7 +1493,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1396,6 +1522,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1426,7 +1553,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111965696"/>
+        <c:crossAx val="842624512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1440,7 +1567,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1547,7 +1673,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1646,7 +1771,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1751,7 +1875,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1856,7 +1979,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1961,7 +2083,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2066,7 +2187,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2171,7 +2291,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2278,7 +2397,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2312,10 +2430,10 @@
             <c:numRef>
               <c:f>Sheet3!$C$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>63.79</c:v>
+                  <c:v>66.36474908200734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2332,11 +2450,11 @@
         </c:dLbls>
         <c:gapWidth val="30"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2141188816"/>
-        <c:axId val="2105565744"/>
+        <c:axId val="831303440"/>
+        <c:axId val="830897456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2141188816"/>
+        <c:axId val="831303440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2346,7 +2464,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105565744"/>
+        <c:crossAx val="830897456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2354,7 +2472,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2105565744"/>
+        <c:axId val="830897456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2377,7 +2495,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2422,7 +2540,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -2442,6 +2560,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2472,7 +2591,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141188816"/>
+        <c:crossAx val="831303440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2486,7 +2605,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2541,6 +2659,573 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0917706309438593"/>
+          <c:y val="0.112211913728175"/>
+          <c:w val="0.708794252991103"/>
+          <c:h val="0.694821636425881"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>推薦されるべき映画</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct50">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>既存システム_x000d_(印象なし)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>既存システム_x000d_(印象あり)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>提案システム_x000d_(映画のタイトルのみ)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>提案システム_x000d_(印象のみ)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>提案システム_x000d_(映画のタイトルと印象)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>28.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.57</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>33.66136765076962</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>36.35250917992656</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>推薦されてもよい映画</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>既存システム_x000d_(印象なし)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>既存システム_x000d_(印象あり)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>提案システム_x000d_(映画のタイトルのみ)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>提案システム_x000d_(印象のみ)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>提案システム_x000d_(映画のタイトルと印象)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>59.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.02</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>63.51249053747161</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>66.36474908200734</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="43"/>
+        <c:overlap val="-2"/>
+        <c:axId val="840157472"/>
+        <c:axId val="742607456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="840157472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="742607456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="742607456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="20.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>[%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0570701510780001"/>
+              <c:y val="0.0312952755905512"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="840157472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10.0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="ja-JP"/>
     </a:p>
@@ -2633,6 +3318,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3137,6 +3862,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3696,6 +4924,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>965200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4029,7 +5292,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:M16"/>
+      <selection activeCell="C9" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4202,16 +5465,16 @@
       <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9">
-        <v>33.79</v>
+      <c r="C9" s="1">
+        <v>36.352509179926564</v>
       </c>
       <c r="E9" s="1">
         <f>ABS(C9-$C$11)</f>
-        <v>4.6099999999999994</v>
+        <v>7.1725091799265641</v>
       </c>
       <c r="F9" s="1">
         <f>ABS($C9-$C$13)</f>
-        <v>4.8999999999999986</v>
+        <v>7.4625091799265633</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -4221,16 +5484,16 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C10">
-        <v>63.79</v>
+      <c r="C10" s="1">
+        <v>66.36474908200735</v>
       </c>
       <c r="E10" s="1">
         <f>ABS(C10-$C$12)</f>
-        <v>4.4799999999999969</v>
+        <v>7.0547490820073477</v>
       </c>
       <c r="F10" s="1">
         <f>ABS($C10-$C$14)</f>
-        <v>4.6000000000000014</v>
+        <v>7.1747490820073523</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -4286,7 +5549,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -4297,7 +5560,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B7:C8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4413,11 +5676,11 @@
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6">
-        <v>33.79</v>
-      </c>
-      <c r="C6">
-        <v>63.79</v>
+      <c r="B6" s="1">
+        <v>36.352509179926564</v>
+      </c>
+      <c r="C6" s="1">
+        <v>66.36474908200735</v>
       </c>
       <c r="H6">
         <v>58.9</v>
@@ -4478,7 +5741,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -4488,8 +5751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4528,11 +5791,11 @@
       </c>
       <c r="F3">
         <f>B8-B3</f>
-        <v>4.6099999999999994</v>
+        <v>7.1725091799265641</v>
       </c>
       <c r="G3">
         <f>C8-C3</f>
-        <v>4.4799999999999969</v>
+        <v>7.0547490820073477</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -4583,17 +5846,183 @@
       <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8">
-        <v>33.79</v>
-      </c>
-      <c r="C8">
-        <v>63.79</v>
+      <c r="B8" s="1">
+        <v>36.352509179926564</v>
+      </c>
+      <c r="C8" s="1">
+        <v>66.36474908200735</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>28.89</v>
+      </c>
+      <c r="D3">
+        <v>59.19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>29.18</v>
+      </c>
+      <c r="D4">
+        <v>59.31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>34.57</v>
+      </c>
+      <c r="D5">
+        <v>64.02</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1">
+        <v>33.66136765076962</v>
+      </c>
+      <c r="D6" s="1">
+        <v>63.512490537471614</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>36.352509179926564</v>
+      </c>
+      <c r="D7" s="1">
+        <v>66.36474908200735</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.28889999999999999</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.2918</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.33661367650769602</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.36349999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.59189999999999998</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.59309999999999996</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.64019999999999999</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.635124905374716</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.66359999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/data/result/result_all.xlsx
+++ b/data/result/result_all.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Desktop/映画評価データ/MovieRecommend/data/result/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="24760" windowHeight="15460" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="12720" yWindow="0" windowWidth="24760" windowHeight="15460" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,13 +13,13 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -366,7 +361,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="94">
+  <cellStyleXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -461,6 +456,8 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -483,7 +480,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="94">
+  <cellStyles count="96">
     <cellStyle name="パーセント" xfId="91" builtinId="5"/>
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
@@ -531,6 +528,7 @@
     <cellStyle name="ハイパーリンク" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="94" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -578,6 +576,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="95" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -629,6 +628,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -637,26 +637,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1403,7 +1383,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>36.35250917992656</c:v>
+                  <c:v>36.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1420,11 +1400,11 @@
         </c:dLbls>
         <c:gapWidth val="30"/>
         <c:overlap val="-27"/>
-        <c:axId val="842624512"/>
-        <c:axId val="835542896"/>
+        <c:axId val="-2081222408"/>
+        <c:axId val="-2081219528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="842624512"/>
+        <c:axId val="-2081222408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1434,7 +1414,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="835542896"/>
+        <c:crossAx val="-2081219528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1442,7 +1422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="835542896"/>
+        <c:axId val="-2081219528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1493,6 +1473,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1501,26 +1482,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -1553,7 +1514,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="842624512"/>
+        <c:crossAx val="-2081222408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1567,6 +1528,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1673,6 +1635,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1681,26 +1644,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2433,7 +2376,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>66.36474908200734</c:v>
+                  <c:v>66.41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2450,11 +2393,11 @@
         </c:dLbls>
         <c:gapWidth val="30"/>
         <c:overlap val="-27"/>
-        <c:axId val="831303440"/>
-        <c:axId val="830897456"/>
+        <c:axId val="-2081144936"/>
+        <c:axId val="-2081142056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="831303440"/>
+        <c:axId val="-2081144936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2464,7 +2407,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="830897456"/>
+        <c:crossAx val="-2081142056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2472,7 +2415,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="830897456"/>
+        <c:axId val="-2081142056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2539,26 +2482,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -2591,7 +2514,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="831303440"/>
+        <c:crossAx val="-2081144936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2605,6 +2528,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2833,7 +2757,7 @@
                   <c:v>33.66136765076962</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00">
-                  <c:v>36.35250917992656</c:v>
+                  <c:v>36.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2970,7 +2894,7 @@
                   <c:v>63.51249053747161</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00">
-                  <c:v>66.36474908200734</c:v>
+                  <c:v>66.41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2987,11 +2911,11 @@
         </c:dLbls>
         <c:gapWidth val="43"/>
         <c:overlap val="-2"/>
-        <c:axId val="840157472"/>
-        <c:axId val="742607456"/>
+        <c:axId val="-2059753368"/>
+        <c:axId val="-2059749144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="840157472"/>
+        <c:axId val="-2059753368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3028,7 +2952,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="742607456"/>
+        <c:crossAx val="-2059749144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3036,7 +2960,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="742607456"/>
+        <c:axId val="-2059749144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20.0"/>
@@ -3105,26 +3029,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
@@ -3156,7 +3060,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="840157472"/>
+        <c:crossAx val="-2059753368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
@@ -3175,6 +3079,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5295,12 +5200,12 @@
       <selection activeCell="C9" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5322,7 +5227,7 @@
         <v>27.52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5344,7 +5249,7 @@
         <v>56.94</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5363,7 +5268,7 @@
         <v>6.1300000000000026</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -5382,7 +5287,7 @@
         <v>6.6200000000000045</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -5401,7 +5306,7 @@
         <v>5.68</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -5420,7 +5325,7 @@
         <v>4.8299999999999983</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -5439,7 +5344,7 @@
         <v>4.7713676507696192</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5458,7 +5363,7 @@
         <v>4.3224905374716158</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -5466,18 +5371,18 @@
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>36.352509179926564</v>
+        <v>36.42594859241126</v>
       </c>
       <c r="E9" s="1">
         <f>ABS(C9-$C$11)</f>
-        <v>7.1725091799265641</v>
+        <v>7.2459485924112599</v>
       </c>
       <c r="F9" s="1">
         <f>ABS($C9-$C$13)</f>
-        <v>7.4625091799265633</v>
+        <v>7.535948592411259</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -5485,18 +5390,18 @@
         <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>66.36474908200735</v>
+        <v>66.413708690330481</v>
       </c>
       <c r="E10" s="1">
         <f>ABS(C10-$C$12)</f>
-        <v>7.0547490820073477</v>
+        <v>7.1037086903304782</v>
       </c>
       <c r="F10" s="1">
         <f>ABS($C10-$C$14)</f>
-        <v>7.1747490820073523</v>
+        <v>7.2237086903304828</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -5511,7 +5416,7 @@
         <v>0.28999999999999915</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -5526,7 +5431,7 @@
         <v>0.12000000000000455</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -5537,7 +5442,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -5552,6 +5457,11 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5563,13 +5473,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -5586,7 +5496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5613,7 +5523,7 @@
         <v>27.12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5637,7 +5547,7 @@
         <v>54.45</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -5648,7 +5558,7 @@
         <v>64.02</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -5672,15 +5582,15 @@
         <v>28.67</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="1">
-        <v>36.352509179926564</v>
+        <v>36.42594859241126</v>
       </c>
       <c r="C6" s="1">
-        <v>66.36474908200735</v>
+        <v>66.413708690330481</v>
       </c>
       <c r="H6">
         <v>58.9</v>
@@ -5693,7 +5603,7 @@
         <v>59.17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -5704,7 +5614,7 @@
         <v>59.31</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -5728,7 +5638,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="H9">
         <v>59.31</v>
       </c>
@@ -5744,6 +5654,11 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5752,15 +5667,15 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
         <v>17</v>
       </c>
@@ -5768,7 +5683,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -5779,7 +5694,7 @@
         <v>59.19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -5791,14 +5706,14 @@
       </c>
       <c r="F3">
         <f>B8-B3</f>
-        <v>7.1725091799265641</v>
+        <v>7.25</v>
       </c>
       <c r="G3">
         <f>C8-C3</f>
-        <v>7.0547490820073477</v>
+        <v>7.0999999999999943</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -5809,7 +5724,7 @@
         <v>65.81</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -5820,7 +5735,7 @@
         <v>62.67</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -5831,7 +5746,7 @@
         <v>64.02</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -5842,15 +5757,15 @@
         <v>63.512490537471614</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="1">
-        <v>36.352509179926564</v>
+        <v>36.43</v>
       </c>
       <c r="C8" s="1">
-        <v>66.36474908200735</v>
+        <v>66.41</v>
       </c>
     </row>
   </sheetData>
@@ -5858,6 +5773,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5866,15 +5786,15 @@
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4">
       <c r="C2" t="s">
         <v>17</v>
       </c>
@@ -5882,7 +5802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4" ht="30">
       <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
@@ -5893,7 +5813,7 @@
         <v>59.19</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4" ht="30">
       <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
@@ -5904,7 +5824,7 @@
         <v>59.31</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4" ht="30">
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
@@ -5915,7 +5835,7 @@
         <v>64.02</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4" ht="30">
       <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
@@ -5926,21 +5846,26 @@
         <v>63.512490537471614</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:4" ht="30">
       <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="1">
-        <v>36.352509179926564</v>
+        <v>36.43</v>
       </c>
       <c r="D7" s="1">
-        <v>66.36474908200735</v>
+        <v>66.41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5949,10 +5874,10 @@
   <dimension ref="C4:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:H6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
@@ -5962,7 +5887,7 @@
     <col min="8" max="8" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:8" ht="29" customHeight="1">
       <c r="C4" s="4"/>
       <c r="D4" s="5" t="s">
         <v>26</v>
@@ -5980,7 +5905,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:8" ht="29" customHeight="1">
       <c r="C5" s="6" t="s">
         <v>31</v>
       </c>
@@ -5997,10 +5922,10 @@
         <v>0.33661367650769602</v>
       </c>
       <c r="H5" s="7">
-        <v>0.36349999999999999</v>
+        <v>0.36430000000000001</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:8" ht="29" customHeight="1">
       <c r="C6" s="6" t="s">
         <v>32</v>
       </c>
@@ -6017,12 +5942,17 @@
         <v>0.635124905374716</v>
       </c>
       <c r="H6" s="7">
-        <v>0.66359999999999997</v>
+        <v>0.66410000000000002</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>